--- a/data/trans_orig/P3A$otra-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P3A$otra-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6159</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2316</v>
+        <v>2295</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13268</v>
+        <v>13759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01064659289355233</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004003604625186539</v>
+        <v>0.003966141157924319</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02293390792115043</v>
+        <v>0.02378191846303055</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -762,19 +762,19 @@
         <v>5389</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2527</v>
+        <v>2420</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11300</v>
+        <v>10321</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.00655626338073744</v>
+        <v>0.006556263380737439</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003073647238811683</v>
+        <v>0.002944261315548726</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01374643507194518</v>
+        <v>0.0125553306871851</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -783,19 +783,19 @@
         <v>11549</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6375</v>
+        <v>6345</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19529</v>
+        <v>20434</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.008245847288762174</v>
+        <v>0.008245847288762173</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004551420394948717</v>
+        <v>0.004530004528480443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01394341968096879</v>
+        <v>0.01458958376364864</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>60662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48488</v>
+        <v>49422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73878</v>
+        <v>72625</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1048550804582421</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08381231288105652</v>
+        <v>0.08542743923115968</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1276989980734811</v>
+        <v>0.1255330896248601</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>237</v>
@@ -833,19 +833,19 @@
         <v>123036</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>106934</v>
+        <v>108020</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>137314</v>
+        <v>139479</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1496717986424208</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1300838158199393</v>
+        <v>0.1314045265047893</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1670409618113741</v>
+        <v>0.1696748948945646</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>331</v>
@@ -854,19 +854,19 @@
         <v>183698</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>163276</v>
+        <v>164211</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>202422</v>
+        <v>202704</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1311594500364628</v>
+        <v>0.1311594500364627</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1165785330288571</v>
+        <v>0.1172461991075658</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1445286740485395</v>
+        <v>0.1447300196385614</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>27185</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20158</v>
+        <v>19134</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37962</v>
+        <v>36846</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04699019029458346</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03484395812680534</v>
+        <v>0.03307268152829239</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0656175897503176</v>
+        <v>0.0636891675637766</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>99</v>
@@ -904,19 +904,19 @@
         <v>54869</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43647</v>
+        <v>44983</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>66258</v>
+        <v>67226</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06674760675572901</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05309582636921689</v>
+        <v>0.05472170388484777</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0806022110118876</v>
+        <v>0.081779127783601</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>140</v>
@@ -925,19 +925,19 @@
         <v>82054</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>69905</v>
+        <v>68372</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>97827</v>
+        <v>98237</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.05858645181397917</v>
+        <v>0.05858645181397915</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04991223701860663</v>
+        <v>0.04881702792382722</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06984810377616793</v>
+        <v>0.07014097893202029</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>32513</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23874</v>
+        <v>23642</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43435</v>
+        <v>43819</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05620016793455423</v>
+        <v>0.05620016793455422</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04126742053292232</v>
+        <v>0.04086526841426625</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07507786618260448</v>
+        <v>0.07574134293705671</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>134</v>
@@ -975,19 +975,19 @@
         <v>65227</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53493</v>
+        <v>53737</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76329</v>
+        <v>75965</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07934744044860047</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06507393779641746</v>
+        <v>0.06537103722628436</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09285288640872949</v>
+        <v>0.09241100591691587</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>181</v>
@@ -996,19 +996,19 @@
         <v>97740</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83429</v>
+        <v>82954</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112927</v>
+        <v>114568</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06978604471462171</v>
+        <v>0.0697860447146217</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05956806608238067</v>
+        <v>0.05922909892988491</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08062966529643824</v>
+        <v>0.08180130105104219</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>269375</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>247305</v>
+        <v>245444</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>292852</v>
+        <v>292841</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4656210250257058</v>
+        <v>0.4656210250257057</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4274715446423205</v>
+        <v>0.4242544916806026</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.506201269695453</v>
+        <v>0.5061820009595753</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>134</v>
@@ -1046,19 +1046,19 @@
         <v>80640</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>67286</v>
+        <v>67552</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>95084</v>
+        <v>95489</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09809770941120603</v>
+        <v>0.09809770941120602</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08185265409754909</v>
+        <v>0.08217655466612719</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1156691273716971</v>
+        <v>0.1161607213277556</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>452</v>
@@ -1067,19 +1067,19 @@
         <v>350015</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>322343</v>
+        <v>321229</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>381089</v>
+        <v>379092</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2499098013076409</v>
+        <v>0.2499098013076408</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2301515966983799</v>
+        <v>0.2293566581315609</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2720959640045715</v>
+        <v>0.2706707211702556</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>94132</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>77781</v>
+        <v>76654</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>113408</v>
+        <v>111007</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1627095935188442</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1344463108825083</v>
+        <v>0.132497820683889</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1960279210728671</v>
+        <v>0.1918787523143179</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>183</v>
@@ -1117,19 +1117,19 @@
         <v>116165</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>100201</v>
+        <v>99525</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>131744</v>
+        <v>132853</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.141313763502228</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1218938787986975</v>
+        <v>0.1210713653122696</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1602645552754034</v>
+        <v>0.1616140452268185</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>285</v>
@@ -1138,19 +1138,19 @@
         <v>210298</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>187758</v>
+        <v>186803</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>237241</v>
+        <v>235936</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1501516945250588</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1340586349440787</v>
+        <v>0.1333767919339297</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.169389064164871</v>
+        <v>0.1684573342426829</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>325784</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>304660</v>
+        <v>301853</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>349385</v>
+        <v>348055</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.563124222652581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5266119631917289</v>
+        <v>0.5217587715503145</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6039198933531404</v>
+        <v>0.6016207632873242</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1209</v>
@@ -1188,19 +1188,19 @@
         <v>698660</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>682341</v>
+        <v>681916</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>714870</v>
+        <v>713486</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8499123760959674</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8300606276199824</v>
+        <v>0.8295430156455</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8696318934209143</v>
+        <v>0.8679476213913802</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1586</v>
@@ -1209,19 +1209,19 @@
         <v>1024444</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>996546</v>
+        <v>997260</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1054545</v>
+        <v>1053431</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7314493897883894</v>
+        <v>0.7314493897883892</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7115306500885862</v>
+        <v>0.7120399219677938</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7529417866640044</v>
+        <v>0.7521460541486779</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>21148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12159</v>
+        <v>13000</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35423</v>
+        <v>37982</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009485798820887377</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005453702206376945</v>
+        <v>0.005830821664500477</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01588832478172304</v>
+        <v>0.0170363293036214</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1263,19 +1263,19 @@
         <v>12451</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6133</v>
+        <v>6295</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24970</v>
+        <v>23748</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005737611371547421</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00282608304031835</v>
+        <v>0.002900747948874349</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0115063202094423</v>
+        <v>0.01094322537692145</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -1284,19 +1284,19 @@
         <v>33600</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20951</v>
+        <v>23071</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51759</v>
+        <v>51419</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.007636976145513718</v>
+        <v>0.00763697614551372</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004761930183811765</v>
+        <v>0.005243922407593469</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01176444061391104</v>
+        <v>0.01168713049191886</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>42531</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31307</v>
+        <v>31741</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58261</v>
+        <v>57996</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0190765756273907</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01404231809587486</v>
+        <v>0.01423702174306419</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02613236413789912</v>
+        <v>0.02601337355701629</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -1334,19 +1334,19 @@
         <v>31977</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23733</v>
+        <v>24739</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42229</v>
+        <v>43308</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01473483768414649</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01093593175262993</v>
+        <v>0.01139950813142178</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01945919849764757</v>
+        <v>0.01995630582987542</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>105</v>
@@ -1355,19 +1355,19 @@
         <v>74507</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>60175</v>
+        <v>59756</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>90058</v>
+        <v>90852</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.01693497954435231</v>
+        <v>0.01693497954435232</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01367739929771136</v>
+        <v>0.01358199241782975</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02046957847418611</v>
+        <v>0.02064986908779888</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>36047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24977</v>
+        <v>24613</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55065</v>
+        <v>53796</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01616850574419295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01120300667854439</v>
+        <v>0.01103961766407238</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02469878900560114</v>
+        <v>0.0241294600876294</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -1405,19 +1405,19 @@
         <v>35723</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27164</v>
+        <v>26894</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47893</v>
+        <v>45816</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01646103622628206</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0125170051399255</v>
+        <v>0.01239274488496737</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02206918756180197</v>
+        <v>0.02111215236248145</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -1426,19 +1426,19 @@
         <v>71770</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55870</v>
+        <v>57768</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90786</v>
+        <v>92740</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01631279868466998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01269892462381432</v>
+        <v>0.01313012516402999</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02063485209980477</v>
+        <v>0.02107900045393411</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>19355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12524</v>
+        <v>12928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28632</v>
+        <v>28957</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008681296514701573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005617663803328777</v>
+        <v>0.00579883916209971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01284260744172522</v>
+        <v>0.01298831384918916</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -1476,19 +1476,19 @@
         <v>20435</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14453</v>
+        <v>14296</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29064</v>
+        <v>29013</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009416399765620666</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006659878710052211</v>
+        <v>0.006587684371240116</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01339278732426863</v>
+        <v>0.01336899847793751</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -1497,19 +1497,19 @@
         <v>39790</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31075</v>
+        <v>29078</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52316</v>
+        <v>51430</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.009043891923124768</v>
+        <v>0.009043891923124769</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007063050570442834</v>
+        <v>0.00660920495150765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01189093716293558</v>
+        <v>0.01168971113573358</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>1078680</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1025447</v>
+        <v>1022426</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1132275</v>
+        <v>1125979</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4838273149999237</v>
+        <v>0.4838273149999236</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4599506248572723</v>
+        <v>0.4585951625401435</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5078666614215882</v>
+        <v>0.5050425777683712</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>743</v>
@@ -1547,19 +1547,19 @@
         <v>517731</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>484219</v>
+        <v>482946</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>553940</v>
+        <v>549483</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2385694221857657</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2231274200488154</v>
+        <v>0.2225409143426074</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.255254689844902</v>
+        <v>0.2532009157937234</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1802</v>
@@ -1568,19 +1568,19 @@
         <v>1596411</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1531135</v>
+        <v>1529061</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1662891</v>
+        <v>1658609</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3628519476582966</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3480153280003674</v>
+        <v>0.347543796935729</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.377962504395116</v>
+        <v>0.3769892053134202</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>694053</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>642469</v>
+        <v>637872</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>753010</v>
+        <v>749311</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3113080547932911</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2881708024467268</v>
+        <v>0.2861089764607009</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.33775233015369</v>
+        <v>0.3360933137591512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>741</v>
@@ -1618,19 +1618,19 @@
         <v>648717</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>609539</v>
+        <v>603700</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>694833</v>
+        <v>692196</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2989277562574215</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2808743348107667</v>
+        <v>0.2781838739537101</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3201779321456856</v>
+        <v>0.3189626172603309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1240</v>
@@ -1639,19 +1639,19 @@
         <v>1342770</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1272867</v>
+        <v>1269729</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1410449</v>
+        <v>1412832</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3052013760397934</v>
+        <v>0.3052013760397935</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2893129216423049</v>
+        <v>0.2885997054430237</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3205843178643389</v>
+        <v>0.321125984572764</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>1461796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1404858</v>
+        <v>1407821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1515201</v>
+        <v>1512683</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6556686479915284</v>
+        <v>0.6556686479915281</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6301302141120143</v>
+        <v>0.6314591488625901</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6796230500464844</v>
+        <v>0.6784934937445579</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2783</v>
@@ -1689,19 +1689,19 @@
         <v>2017501</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1984728</v>
+        <v>1979507</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2043263</v>
+        <v>2040580</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9296610601087985</v>
+        <v>0.9296610601087986</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9145594453011383</v>
+        <v>0.912153602066727</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9415322576112671</v>
+        <v>0.940295692843397</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4123</v>
@@ -1710,19 +1710,19 @@
         <v>3479297</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3402520</v>
+        <v>3412457</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3534254</v>
+        <v>3546208</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7908175409562966</v>
+        <v>0.7908175409562967</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7733667420011306</v>
+        <v>0.7756254815930476</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.803308908543271</v>
+        <v>0.8060260810380427</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>9996</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4667</v>
+        <v>4780</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18540</v>
+        <v>19316</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.01404808595592261</v>
+        <v>0.0140480859559226</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006558224358843377</v>
+        <v>0.006717482119111591</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02605463779266205</v>
+        <v>0.02714539993249552</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -1764,19 +1764,19 @@
         <v>15483</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8709</v>
+        <v>8149</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28662</v>
+        <v>27019</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02106903895532279</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01185092475532482</v>
+        <v>0.0110892330710238</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03900193123085187</v>
+        <v>0.03676696095770809</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -1785,19 +1785,19 @@
         <v>25480</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16713</v>
+        <v>16152</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37707</v>
+        <v>39713</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01761508640434513</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01155432520912347</v>
+        <v>0.01116641877303308</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02606818385486865</v>
+        <v>0.02745500180187428</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>3556</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1240</v>
+        <v>1348</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8946</v>
+        <v>8503</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.004997825118600837</v>
+        <v>0.004997825118600836</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001742966514696759</v>
+        <v>0.001894247301445704</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01257246517857842</v>
+        <v>0.01194969617072656</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1835,19 +1835,19 @@
         <v>2956</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7406</v>
+        <v>7123</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004023105101107626</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0009362330069046716</v>
+        <v>0.0009560837499008216</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01007845555365127</v>
+        <v>0.009692942999105862</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1856,19 +1856,19 @@
         <v>6513</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3280</v>
+        <v>3006</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12240</v>
+        <v>11814</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.00450261788109594</v>
+        <v>0.004502617881095939</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002267323481950026</v>
+        <v>0.002077906238498588</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.008462070014060994</v>
+        <v>0.008167378986364496</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>39836</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29880</v>
+        <v>29057</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>54663</v>
+        <v>53052</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05598241299242032</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04199097724058744</v>
+        <v>0.04083340954001453</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07681840883983895</v>
+        <v>0.07455469672965589</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -1906,19 +1906,19 @@
         <v>45862</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35451</v>
+        <v>35559</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57915</v>
+        <v>57381</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06240805277149215</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04824012504978874</v>
+        <v>0.04838788647440886</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07880975546687578</v>
+        <v>0.07808241334284063</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>115</v>
@@ -1927,19 +1927,19 @@
         <v>85699</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>70764</v>
+        <v>70380</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102167</v>
+        <v>104872</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.05924696411180669</v>
+        <v>0.05924696411180667</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04892224222825663</v>
+        <v>0.04865663228533341</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07063201132523508</v>
+        <v>0.07250221233525442</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>9981</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3971</v>
+        <v>4220</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23839</v>
+        <v>21525</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01402629877254846</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005580782137466237</v>
+        <v>0.005929936279891521</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03350073910567111</v>
+        <v>0.03024927317978258</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1977,19 +1977,19 @@
         <v>2857</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1026</v>
+        <v>1076</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6678</v>
+        <v>6255</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.003887296884624631</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001395608991780209</v>
+        <v>0.001464827022267333</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.009087060772391109</v>
+        <v>0.008511148597253436</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -1998,19 +1998,19 @@
         <v>12838</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7610</v>
+        <v>6828</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29386</v>
+        <v>28906</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.008875171242728673</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005260960215697228</v>
+        <v>0.004720275667355365</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02031608703185821</v>
+        <v>0.01998385041493918</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>385234</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>354658</v>
+        <v>356050</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>414821</v>
+        <v>412587</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.541373507282867</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4984047324256338</v>
+        <v>0.500360210321612</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5829522154161753</v>
+        <v>0.5798130839652788</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>327</v>
@@ -2048,19 +2048,19 @@
         <v>231777</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>211541</v>
+        <v>209267</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>253945</v>
+        <v>253516</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3153958415560001</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2878596874930673</v>
+        <v>0.2847641562914617</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3455605920638287</v>
+        <v>0.3449780007888238</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>718</v>
@@ -2069,19 +2069,19 @@
         <v>617011</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>581931</v>
+        <v>581653</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>656418</v>
+        <v>655065</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4265653843613673</v>
+        <v>0.4265653843613672</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4023129808723558</v>
+        <v>0.402120669240799</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4538085110076942</v>
+        <v>0.4528735861036125</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>183423</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>158659</v>
+        <v>154461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>212339</v>
+        <v>210028</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2577654679907341</v>
+        <v>0.257765467990734</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2229645608495</v>
+        <v>0.2170654605816649</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.298401664899556</v>
+        <v>0.2951545843114067</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>228</v>
@@ -2119,19 +2119,19 @@
         <v>182299</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>161413</v>
+        <v>160040</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>207162</v>
+        <v>206069</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2480667935269207</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2196468955051913</v>
+        <v>0.2177781894474886</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.281899561055967</v>
+        <v>0.2804125988870897</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>380</v>
@@ -2140,19 +2140,19 @@
         <v>365721</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>331758</v>
+        <v>335021</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>400499</v>
+        <v>407605</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2528380491396918</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2293580855166535</v>
+        <v>0.2316137355597483</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2768812093741767</v>
+        <v>0.2817944132091056</v>
       </c>
     </row>
     <row r="24">
@@ -2169,19 +2169,19 @@
         <v>514603</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>485098</v>
+        <v>487183</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>540569</v>
+        <v>541350</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7231770539783408</v>
+        <v>0.7231770539783406</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6817122890434091</v>
+        <v>0.6846426749122295</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7596664915891217</v>
+        <v>0.7607648266616532</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>933</v>
@@ -2190,19 +2190,19 @@
         <v>663039</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>644938</v>
+        <v>644282</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>678565</v>
+        <v>679138</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9022445402565918</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8776138490187141</v>
+        <v>0.8767209793810076</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9233724151027942</v>
+        <v>0.924151368446938</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1433</v>
@@ -2211,19 +2211,19 @@
         <v>1177642</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1143246</v>
+        <v>1144642</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1209282</v>
+        <v>1208662</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.8141524249724187</v>
+        <v>0.8141524249724185</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7903732733157278</v>
+        <v>0.7913382741718494</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8360262565622475</v>
+        <v>0.8355976198216687</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>37304</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25993</v>
+        <v>25194</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56071</v>
+        <v>54752</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01059900188545637</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00738517558856004</v>
+        <v>0.007158305171577123</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01593106269294708</v>
+        <v>0.01555622472332862</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -2265,19 +2265,19 @@
         <v>33324</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22950</v>
+        <v>22077</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48060</v>
+        <v>48369</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008941121506424766</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006157738606914088</v>
+        <v>0.005923513932269582</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01289493057358634</v>
+        <v>0.01297781181530999</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -2286,19 +2286,19 @@
         <v>70628</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53718</v>
+        <v>53697</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>92282</v>
+        <v>92377</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.009746329048673532</v>
+        <v>0.009746329048673534</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007412833664073967</v>
+        <v>0.007409844048043637</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01273441108266416</v>
+        <v>0.01274757910537645</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>106749</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>88077</v>
+        <v>89904</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>126457</v>
+        <v>127543</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03032991378538698</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02502483089182824</v>
+        <v>0.02554390612039283</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03592938930415306</v>
+        <v>0.03623791645996961</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>297</v>
@@ -2336,19 +2336,19 @@
         <v>157969</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>140002</v>
+        <v>139634</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>176848</v>
+        <v>176548</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04238435954109435</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03756367917711369</v>
+        <v>0.03746493288423023</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0474497519916291</v>
+        <v>0.04736921603121005</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>445</v>
@@ -2357,19 +2357,19 @@
         <v>264718</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>241123</v>
+        <v>242090</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>290333</v>
+        <v>294280</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.03652969670601463</v>
+        <v>0.03652969670601462</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0332736954360902</v>
+        <v>0.03340717312240021</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04006440296300618</v>
+        <v>0.04060912138380353</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>103069</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>83705</v>
+        <v>84339</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>123919</v>
+        <v>124525</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02928432802990315</v>
+        <v>0.02928432802990316</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02378252408722814</v>
+        <v>0.02396271548333296</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0352082485021967</v>
+        <v>0.03538039994882465</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>225</v>
@@ -2407,19 +2407,19 @@
         <v>136454</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>119898</v>
+        <v>118425</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>156475</v>
+        <v>155628</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0366117297254017</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03216963360220699</v>
+        <v>0.03177444873783603</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04198352500399733</v>
+        <v>0.04175626266915804</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>347</v>
@@ -2428,19 +2428,19 @@
         <v>239523</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>213641</v>
+        <v>214953</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>269617</v>
+        <v>267799</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.03305292102911435</v>
+        <v>0.03305292102911436</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02948133269702173</v>
+        <v>0.02966244924122389</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03720568310931611</v>
+        <v>0.03695491537125567</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>61849</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>49502</v>
+        <v>49405</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>79529</v>
+        <v>81202</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01757281594835888</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0140645667347768</v>
+        <v>0.01403718275144766</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02259599736349906</v>
+        <v>0.02307134264095431</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>174</v>
@@ -2478,19 +2478,19 @@
         <v>88518</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>75319</v>
+        <v>75495</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>102356</v>
+        <v>103701</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02375014339843804</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02020861986317835</v>
+        <v>0.02025593584194682</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02746279341102078</v>
+        <v>0.02782367429378706</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>255</v>
@@ -2499,19 +2499,19 @@
         <v>150367</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>129819</v>
+        <v>130933</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>172360</v>
+        <v>173015</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02074990844985296</v>
+        <v>0.02074990844985297</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01791428607924602</v>
+        <v>0.01806806902618829</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02378482867394854</v>
+        <v>0.02387515037928524</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>1733290</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1668316</v>
+        <v>1666972</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1799055</v>
+        <v>1799797</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4924693028230761</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4740086400718865</v>
+        <v>0.4736267243670103</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5111548105217036</v>
+        <v>0.5113656436247894</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1204</v>
@@ -2549,19 +2549,19 @@
         <v>830148</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>792602</v>
+        <v>785582</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>877643</v>
+        <v>875399</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2227352139008544</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2126614041005831</v>
+        <v>0.2107778915417039</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2354785463169786</v>
+        <v>0.2348763030502442</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2972</v>
@@ -2570,19 +2570,19 @@
         <v>2563438</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2480652</v>
+        <v>2479672</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2639820</v>
+        <v>2645772</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3537410002945857</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3423170006038371</v>
+        <v>0.3421817054964141</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3642813134981598</v>
+        <v>0.3651026886002622</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>971608</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>911099</v>
+        <v>904138</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1034817</v>
+        <v>1036854</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2760571288995941</v>
+        <v>0.2760571288995942</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2588652085610283</v>
+        <v>0.2568871662941303</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.294016284952131</v>
+        <v>0.2945951983152549</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1152</v>
@@ -2620,19 +2620,19 @@
         <v>947181</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>893503</v>
+        <v>894405</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>998971</v>
+        <v>999110</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2541361116755658</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2397337644223398</v>
+        <v>0.2399758500303996</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2680317927047287</v>
+        <v>0.2680690982597045</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1905</v>
@@ -2641,19 +2641,19 @@
         <v>1918789</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1829275</v>
+        <v>1834791</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1995373</v>
+        <v>2006782</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2647828197407538</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.252430365062574</v>
+        <v>0.2531914908916651</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2753510390024893</v>
+        <v>0.2769254149382605</v>
       </c>
     </row>
     <row r="31">
@@ -2670,19 +2670,19 @@
         <v>2302183</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2242627</v>
+        <v>2240648</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2368907</v>
+        <v>2362663</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6541055210135944</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6371840888403917</v>
+        <v>0.6366219593928645</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6730632244660452</v>
+        <v>0.6712891499527603</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4925</v>
@@ -2691,19 +2691,19 @@
         <v>3379200</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3341501</v>
+        <v>3343143</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3414669</v>
+        <v>3414642</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.9066659460775981</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.8965510114660235</v>
+        <v>0.8969914141738109</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9161824702660657</v>
+        <v>0.9161751693897939</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7142</v>
@@ -2712,19 +2712,19 @@
         <v>5681383</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5605451</v>
+        <v>5608205</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5761629</v>
+        <v>5757166</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7840011496862695</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7735229033270088</v>
+        <v>0.7739028499879654</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7950746560964312</v>
+        <v>0.794458684900362</v>
       </c>
     </row>
     <row r="32">
